--- a/biology/Microbiologie/Rigidothrichidae/Rigidothrichidae.xlsx
+++ b/biology/Microbiologie/Rigidothrichidae/Rigidothrichidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Rigidothrichidae sont une famille de Ciliés de la classe des Hypotrichea et de l’ordre des Urostylida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Rigidothrix, issu du latin rigidus, « raide, dur », et du grec ancien θριξ / thrix, « poil, cheveu », en référence à la rigidité de ce protiste[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Rigidothrix, issu du latin rigidus, « raide, dur », et du grec ancien θριξ / thrix, « poil, cheveu », en référence à la rigidité de ce protiste.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce type Rigidothrix goiseri est très facile à voir in vivo en raison de sa taille moyenne de 230 × 70 μm et d'une queue distincte.
 Parmi les caractéristiques de cette espèce, on note : un corps cellulaire rigide ; une zone frontale bien visible ; des membranes ondulées dont les motifs sont semblables à ceux du genre Oxytricha (famille des Oxytrichidae) ; une puissante zone adorale de membranelles, AZM[note 1], non réorganisée au cours de l'ontogenèse.
@@ -552,7 +568,7 @@
 Uroleptus gallina (même famille que Rigidothrix) , à 94,93%,
 Urostyla grandis (famille des Urostylidae), à 92,7%.
 Les principales particularités morphologiques de Rigidothrix montrent qu'il représente un nouveau genre qu'il convient de classer dans une nouvelle famille, les Rigidothrichidae, accompagné des genres Afrophrya Foissner &amp; Stoeck, 2006, Territricha Berger &amp; Foissner, 1988 et Uroleptus Ehrenberg, 1831.
-La taille et la forme remarquables de Rigidothrix goiseri en font un fleuron biogéographique probablement confiné à l'Afrique[1].
+La taille et la forme remarquables de Rigidothrix goiseri en font un fleuron biogéographique probablement confiné à l'Afrique.
 </t>
         </is>
       </c>
@@ -581,9 +597,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce type Rigidothrix goiseri a été découverte dans le sol de la plaine inondable du Niger près de la ville de Tombouctou, République du Mali[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce type Rigidothrix goiseri a été découverte dans le sol de la plaine inondable du Niger près de la ville de Tombouctou, République du Mali.
 </t>
         </is>
       </c>
@@ -612,11 +630,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (30 mars 2023)[2] :
-Afrophrya Foissner W, Stoeck T. 2006[1]
-Rigidothrix Foissner W, Stoeck T. 2006[1]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (30 mars 2023) :
+Afrophrya Foissner W, Stoeck T. 2006
+Rigidothrix Foissner W, Stoeck T. 2006
 Espèce type : Rigidothrix goiseri Foissner &amp; Stoeck, 2006
 Uroleptus Ehrenberg, 1831</t>
         </is>
@@ -646,9 +666,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Rigidothrichidae Foissner &amp; Stoeck, 2006[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Rigidothrichidae Foissner &amp; Stoeck, 2006.
 </t>
         </is>
       </c>
